--- a/data/outputs/management/65.xlsx
+++ b/data/outputs/management/65.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ141"/>
+  <dimension ref="A1:BR141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +928,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4628773</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1325,6 +1336,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1760,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1960,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2153,6 +2168,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2384,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2567,6 +2584,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2766,6 +2784,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2977,6 +2996,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3176,6 +3196,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3359,6 +3380,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3574,6 +3596,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3777,6 +3800,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>13727245</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3992,6 +4020,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4191,6 +4220,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4398,6 +4428,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4605,6 +4636,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4812,6 +4844,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5011,6 +5044,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5210,6 +5244,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5417,6 +5452,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5616,6 +5652,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5827,6 +5864,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6026,6 +6064,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6225,6 +6264,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6428,6 +6468,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6611,6 +6652,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6818,6 +6860,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7017,6 +7060,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7220,6 +7264,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7419,6 +7464,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7630,6 +7676,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7845,6 +7892,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8044,6 +8092,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4063626</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8255,6 +8308,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8470,6 +8524,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8669,6 +8724,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8880,6 +8936,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>15538990</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9071,6 +9132,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9278,6 +9340,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9485,6 +9548,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9684,6 +9748,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9887,6 +9952,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4239658</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10094,6 +10164,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10309,6 +10380,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10512,6 +10584,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10715,6 +10788,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10918,6 +10992,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11101,6 +11176,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11304,6 +11380,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4097027</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11503,6 +11584,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11702,6 +11784,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11901,6 +11984,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12116,6 +12200,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12311,6 +12396,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12518,6 +12604,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12717,6 +12804,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12920,6 +13008,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13123,6 +13212,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13338,6 +13428,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13521,6 +13612,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13728,6 +13820,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13931,6 +14024,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14146,6 +14240,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14361,6 +14456,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14560,6 +14656,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14759,6 +14856,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14958,6 +15056,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15165,6 +15264,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15364,6 +15464,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15563,6 +15664,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15770,6 +15872,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15973,6 +16076,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16176,6 +16280,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16375,6 +16480,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16570,6 +16676,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16777,6 +16884,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16984,6 +17092,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17167,6 +17276,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17382,6 +17492,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>15546034</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17589,6 +17704,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17796,6 +17912,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18011,6 +18128,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18210,6 +18328,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18409,6 +18528,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4215638</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18616,6 +18740,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18819,6 +18944,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19018,6 +19144,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19221,6 +19348,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19432,6 +19560,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19631,6 +19760,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19842,6 +19972,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20049,6 +20180,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20256,6 +20388,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20463,6 +20596,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20662,6 +20796,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20869,6 +21004,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21076,6 +21212,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21291,6 +21428,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21494,6 +21632,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21693,6 +21832,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4928010</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21892,6 +22036,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22103,6 +22248,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22302,6 +22448,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>6615263</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22485,6 +22636,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22688,6 +22840,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22891,6 +23044,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23090,6 +23244,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23289,6 +23444,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23496,6 +23652,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>3027958</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23695,6 +23856,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>3257222</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23894,6 +24060,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24097,6 +24264,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24304,6 +24472,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>3061650</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24487,6 +24660,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24694,6 +24868,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>2952105</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24893,6 +25072,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25100,6 +25280,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>3064689</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25299,6 +25484,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25502,6 +25688,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25701,6 +25888,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -25904,6 +26092,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26103,6 +26292,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26310,6 +26500,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26513,6 +26704,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -26716,6 +26908,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -26915,6 +27108,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27114,6 +27308,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27297,6 +27492,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27496,6 +27692,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27695,6 +27892,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -27898,6 +28096,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28105,6 +28304,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28308,6 +28508,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28507,6 +28708,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -28714,6 +28916,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -28913,6 +29116,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29112,6 +29316,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>39252515</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
